--- a/public/Equipos_Docentes.xlsx
+++ b/public/Equipos_Docentes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cursosInd\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\encuestas_industrias\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$142</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
   <si>
     <t>CODIGO</t>
   </si>
@@ -68,9 +68,15 @@
     <t>Juan Escobar</t>
   </si>
   <si>
+    <t>Azucena Orellana</t>
+  </si>
+  <si>
     <t>IN3301</t>
   </si>
   <si>
+    <t>Tomás Soto</t>
+  </si>
+  <si>
     <t>Iván Fuentealba</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t>Claudio Pavanati</t>
   </si>
   <si>
+    <t>IN6909</t>
+  </si>
+  <si>
     <t>William Baeza</t>
   </si>
   <si>
@@ -608,13 +617,7 @@
     <t>Alexander Santibañez H</t>
   </si>
   <si>
-    <t>Tomás Soto Jara</t>
-  </si>
-  <si>
-    <t>Azucena Orellana I.</t>
-  </si>
-  <si>
-    <t>IN6908/IN6909</t>
+    <t>IN6908</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,12 +1084,12 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1106,7 +1109,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1115,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
@@ -1129,11 +1132,11 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,7 +1150,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,7 +1160,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,11 +1170,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,12 +1184,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>8</v>
@@ -1199,7 +1202,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,11 +1210,11 @@
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,16 +1222,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -1241,7 +1244,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,7 +1254,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,7 +1268,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,7 +1278,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,47 +1288,49 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,11 +1340,11 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,7 +1354,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,7 +1364,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,51 +1374,51 @@
         <v>3</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1428,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,7 +1438,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,11 +1448,11 @@
         <v>2</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,7 +1462,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,25 +1472,27 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,47 +1500,57 @@
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="8" t="s">
-        <v>109</v>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>108</v>
+      <c r="F34" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1542,28 +1559,20 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="8" t="s">
-        <v>109</v>
+      <c r="F36" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,39 +1582,35 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C39" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,7 +1620,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,7 +1630,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,31 +1640,31 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,181 +1674,181 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="A49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F49" s="7" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
       <c r="D51" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="6">
-        <v>2</v>
-      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="6">
-        <v>3</v>
-      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="7" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
       <c r="D55" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="6">
-        <v>4</v>
-      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="6">
+        <v>5</v>
+      </c>
       <c r="D57" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="6">
-        <v>5</v>
-      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
       <c r="D59" s="7" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,31 +1858,31 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,35 +1892,35 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="6">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,213 +1930,213 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="A68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F68" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="6">
-        <v>2</v>
-      </c>
+      <c r="C72" s="6"/>
       <c r="D72" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
+      <c r="A73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
       <c r="D73" s="7" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="F74" s="7" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="6">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
+      <c r="C76" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="7"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="6">
-        <v>1</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C81" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" s="9"/>
+      <c r="F81" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,7 +2146,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,17 +2156,17 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,7 +2176,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2180,8 +2185,8 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="7" t="s">
-        <v>189</v>
+      <c r="F87" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,233 +2196,233 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="13" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="13" t="s">
-        <v>165</v>
+      <c r="A89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="6">
-        <v>1</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
       <c r="D91" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C92" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="E92" s="7"/>
-      <c r="F92" s="10" t="s">
-        <v>79</v>
+      <c r="F92" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="6">
-        <v>1</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
+      <c r="A95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="6">
-        <v>1</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="A97" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="6">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="A99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="F99" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="6">
         <v>1</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6">
-        <v>2</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="6">
-        <v>2</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>132</v>
-      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,43 +2432,45 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="7"/>
+      <c r="A106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="6">
-        <v>1</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E107" s="7"/>
-      <c r="F107" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="6">
+        <v>2</v>
+      </c>
       <c r="D108" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -2471,11 +2478,9 @@
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="6">
-        <v>2</v>
-      </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -2483,9 +2488,11 @@
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6">
+        <v>3</v>
+      </c>
       <c r="D110" s="7" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -2493,49 +2500,47 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="6">
-        <v>3</v>
-      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
+      <c r="A112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
       <c r="D112" s="7" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C113" s="6">
-        <v>1</v>
-      </c>
+      <c r="A113" s="4"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E113" s="7"/>
-      <c r="F113" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -2543,67 +2548,67 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="6">
+        <v>2</v>
+      </c>
       <c r="D115" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="6">
-        <v>2</v>
-      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E116" s="7"/>
-      <c r="F116" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="11"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6">
+        <v>3</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="6">
-        <v>3</v>
-      </c>
+      <c r="C119" s="6"/>
       <c r="D119" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E119" s="7"/>
-      <c r="F119" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
       <c r="D120" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -2611,33 +2616,33 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="6">
+        <v>4</v>
+      </c>
       <c r="D121" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="6">
-        <v>4</v>
-      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E122" s="7"/>
-      <c r="F122" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -2645,33 +2650,33 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="6">
+        <v>5</v>
+      </c>
       <c r="D124" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
+      <c r="F124" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="6">
-        <v>5</v>
-      </c>
+      <c r="C125" s="6"/>
       <c r="D125" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E125" s="7"/>
-      <c r="F125" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -2679,33 +2684,33 @@
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="6">
+        <v>6</v>
+      </c>
       <c r="D127" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="F127" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="6">
-        <v>6</v>
-      </c>
+      <c r="C128" s="6"/>
       <c r="D128" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="F128" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -2713,33 +2718,33 @@
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="6">
+        <v>7</v>
+      </c>
       <c r="D130" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="6">
-        <v>7</v>
-      </c>
+      <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E131" s="7"/>
-      <c r="F131" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -2747,33 +2752,33 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="6">
+        <v>8</v>
+      </c>
       <c r="D133" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="6">
-        <v>8</v>
-      </c>
+      <c r="C134" s="6"/>
       <c r="D134" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E134" s="7"/>
-      <c r="F134" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -2781,33 +2786,33 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="6">
+        <v>9</v>
+      </c>
       <c r="D136" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="6">
-        <v>9</v>
-      </c>
+      <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E137" s="7"/>
-      <c r="F137" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -2815,33 +2820,33 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="6">
+        <v>10</v>
+      </c>
       <c r="D139" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="6">
-        <v>10</v>
-      </c>
+      <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E140" s="7"/>
-      <c r="F140" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -2849,27 +2854,373 @@
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="6">
+        <v>11</v>
+      </c>
       <c r="D142" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C143" s="6">
+        <v>1</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6">
+        <v>2</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="6">
+        <v>3</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149" s="7"/>
+      <c r="F149" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="6">
+        <v>4</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6">
+        <v>5</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6">
+        <v>6</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6">
+        <v>7</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="6">
+        <v>8</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="6">
+        <v>9</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="6">
+        <v>10</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="6">
         <v>11</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F143"/>
+  <autoFilter ref="A1:F142"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Equipos_Docentes.xlsx
+++ b/public/Equipos_Docentes.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$145</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
   <si>
     <t>CODIGO</t>
   </si>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1090,7 @@
     <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -1120,195 +1123,185 @@
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,33 +1311,37 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,24 +1358,26 @@
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,30 +1394,24 @@
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,31 +1421,37 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="13" t="s">
-        <v>174</v>
+      <c r="F27" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,7 +1461,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,146 +1470,142 @@
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>176</v>
+      <c r="F30" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="8" t="s">
-        <v>110</v>
+      <c r="F32" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>112</v>
+      <c r="F37" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,17 +1615,25 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,21 +1643,17 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,7 +1663,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,17 +1673,21 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,178 +1697,174 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="6">
-        <v>3</v>
-      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="6">
-        <v>4</v>
-      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
       <c r="D56" s="7" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="6">
-        <v>5</v>
-      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="6">
+        <v>4</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="7" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="6">
+        <v>5</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>182</v>
@@ -1896,21 +1895,17 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1915,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,39 +1925,35 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,20 +1963,28 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="9"/>
+      <c r="E71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1995,138 +1994,132 @@
         <v>119</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C76" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="9"/>
+      <c r="F76" s="7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
+      <c r="C79" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C80" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="7" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,57 +2129,67 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
+      <c r="A84" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="13" t="s">
-        <v>122</v>
+      <c r="F87" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,70 +2198,58 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="13" t="s">
-        <v>168</v>
+      <c r="F88" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="6">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7" t="s">
-        <v>155</v>
-      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="10" t="s">
-        <v>82</v>
+      <c r="F91" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92" s="6">
         <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F92" s="7" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,139 +2257,139 @@
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="E93" s="7"/>
-      <c r="F93" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
-        <v>60</v>
+      <c r="F94" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>193</v>
+      <c r="D95" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="6">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>194</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="7"/>
+      <c r="A98" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C102" s="6">
         <v>1</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="6">
-        <v>1</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,21 +2399,29 @@
         <v>2</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,67 +2431,67 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="6">
-        <v>2</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
+      <c r="A109" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
       <c r="D109" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="6">
-        <v>3</v>
-      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -2500,37 +2499,33 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
       <c r="D111" s="7" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" s="6">
-        <v>1</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E112" s="7"/>
-      <c r="F112" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="6">
+        <v>3</v>
+      </c>
       <c r="D113" s="7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -2540,19 +2535,23 @@
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="C115" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="13" t="s">
@@ -2564,29 +2563,29 @@
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="11"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="13" t="s">
@@ -2598,29 +2597,29 @@
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="13" t="s">
@@ -2632,7 +2631,7 @@
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -2642,7 +2641,7 @@
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -2651,10 +2650,10 @@
       <c r="A124" s="4"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="13" t="s">
@@ -2666,7 +2665,7 @@
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -2676,7 +2675,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -2685,10 +2684,10 @@
       <c r="A127" s="4"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="13" t="s">
@@ -2700,7 +2699,7 @@
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -2710,7 +2709,7 @@
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -2719,10 +2718,10 @@
       <c r="A130" s="4"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="13" t="s">
@@ -2734,7 +2733,7 @@
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -2744,7 +2743,7 @@
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -2753,10 +2752,10 @@
       <c r="A133" s="4"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="13" t="s">
@@ -2768,7 +2767,7 @@
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -2778,7 +2777,7 @@
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -2787,10 +2786,10 @@
       <c r="A136" s="4"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="13" t="s">
@@ -2802,7 +2801,7 @@
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -2812,7 +2811,7 @@
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -2821,10 +2820,10 @@
       <c r="A139" s="4"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="13" t="s">
@@ -2836,7 +2835,7 @@
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -2846,7 +2845,7 @@
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -2855,38 +2854,32 @@
       <c r="A142" s="4"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
+      <c r="F142" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C143" s="6">
-        <v>1</v>
-      </c>
+      <c r="A143" s="4"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
       <c r="D143" s="7" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E143" s="7"/>
-      <c r="F143" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
       <c r="D144" s="7" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -2894,21 +2887,27 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="6">
+        <v>11</v>
+      </c>
       <c r="D145" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C146" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="13" t="s">
@@ -2920,29 +2919,29 @@
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="11"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="13" t="s">
@@ -2954,29 +2953,29 @@
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
       <c r="D150" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="13" t="s">
@@ -2988,7 +2987,7 @@
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -2998,7 +2997,7 @@
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
       <c r="D154" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -3007,10 +3006,10 @@
       <c r="A155" s="4"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="13" t="s">
@@ -3022,7 +3021,7 @@
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
       <c r="D156" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -3032,7 +3031,7 @@
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
       <c r="D157" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -3041,10 +3040,10 @@
       <c r="A158" s="4"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="13" t="s">
@@ -3056,7 +3055,7 @@
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -3066,7 +3065,7 @@
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
       <c r="D160" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -3075,10 +3074,10 @@
       <c r="A161" s="4"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="13" t="s">
@@ -3090,7 +3089,7 @@
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -3100,7 +3099,7 @@
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
       <c r="D163" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -3109,10 +3108,10 @@
       <c r="A164" s="4"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="13" t="s">
@@ -3124,7 +3123,7 @@
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -3134,7 +3133,7 @@
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
       <c r="D166" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -3143,10 +3142,10 @@
       <c r="A167" s="4"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="13" t="s">
@@ -3158,7 +3157,7 @@
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -3168,7 +3167,7 @@
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
       <c r="D169" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -3177,10 +3176,10 @@
       <c r="A170" s="4"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="13" t="s">
@@ -3192,7 +3191,7 @@
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -3202,7 +3201,7 @@
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
       <c r="D172" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -3211,16 +3210,50 @@
       <c r="A173" s="4"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6">
+        <v>10</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="6">
         <v>11</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F142"/>
+  <autoFilter ref="A1:F145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Equipos_Docentes.xlsx
+++ b/public/Equipos_Docentes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="198">
   <si>
     <t>CODIGO</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Juan Escobar</t>
   </si>
   <si>
-    <t>Azucena Orellana</t>
-  </si>
-  <si>
     <t>IN3301</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>Marcelo Olivares A.</t>
   </si>
   <si>
-    <t>Luis S. Muñoz</t>
-  </si>
-  <si>
     <t>Ignacia Navarro Lépez</t>
   </si>
   <si>
@@ -618,6 +612,15 @@
   </si>
   <si>
     <t>IN6908</t>
+  </si>
+  <si>
+    <t>Azucena Orellana I.</t>
+  </si>
+  <si>
+    <t>Constanza Ortega Venegas</t>
+  </si>
+  <si>
+    <t>Luis S. Muñoz Marquez</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1095,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1121,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1135,7 +1138,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,11 +1146,11 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,7 +1164,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1172,7 +1175,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -1183,7 +1186,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,11 +1196,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1210,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,12 +1220,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>8</v>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,11 +1246,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,16 +1258,16 @@
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1290,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,7 +1304,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,7 +1314,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,27 +1324,25 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,7 +1352,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,11 +1360,11 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,11 +1374,11 @@
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,7 +1388,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,7 +1398,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,11 +1408,11 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,7 +1422,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,29 +1430,29 @@
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,7 +1462,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +1472,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,11 +1482,11 @@
         <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,7 +1496,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,27 +1506,27 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,11 +1534,11 @@
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,11 +1548,11 @@
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,31 +1560,31 @@
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,7 +1594,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1606,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,25 +1616,25 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1644,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,7 +1654,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1664,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,7 +1674,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,11 +1684,11 @@
         <v>2</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,7 +1698,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1708,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,7 +1718,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,27 +1728,27 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,7 +1756,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -1767,11 +1768,11 @@
         <v>2</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,7 +1780,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1791,11 +1792,11 @@
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,7 +1804,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -1815,11 +1816,11 @@
         <v>4</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,7 +1828,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -1839,11 +1840,11 @@
         <v>5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,27 +1852,27 @@
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,7 +1882,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,7 +1892,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,11 +1902,11 @@
         <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,7 +1916,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,25 +1926,25 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1954,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,27 +1964,27 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F71" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,11 +1992,11 @@
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
       <c r="D72" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,7 +2006,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2015,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
@@ -2025,47 +2026,47 @@
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,7 +2076,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2085,29 +2086,29 @@
         <v>2</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,11 +2116,11 @@
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
       <c r="D81" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,7 +2130,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2139,27 +2140,27 @@
         <v>2</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" s="6">
         <v>1</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,7 +2170,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,7 +2180,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,7 +2190,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2200,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,7 +2210,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,7 +2220,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,27 +2230,27 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" s="6">
         <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2258,7 @@
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -2269,29 +2270,29 @@
         <v>2</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,11 +2300,11 @@
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,25 +2314,25 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" s="6">
         <v>1</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,25 +2342,25 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" s="6">
         <v>1</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,27 +2370,27 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,29 +2400,29 @@
         <v>2</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,7 +2432,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,11 +2442,11 @@
         <v>2</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,7 +2456,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,25 +2466,25 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,7 +2492,7 @@
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -2503,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -2513,7 +2514,7 @@
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -2525,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -2535,27 +2536,27 @@
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C115" s="6">
         <v>1</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,7 +2564,7 @@
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -2573,7 +2574,7 @@
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -2585,11 +2586,11 @@
         <v>2</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,7 +2598,7 @@
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -2607,7 +2608,7 @@
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="11"/>
@@ -2619,11 +2620,11 @@
         <v>3</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,7 +2632,7 @@
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -2641,7 +2642,7 @@
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -2653,11 +2654,11 @@
         <v>4</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,7 +2666,7 @@
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -2675,7 +2676,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -2687,11 +2688,11 @@
         <v>5</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2700,7 @@
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -2709,7 +2710,7 @@
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -2721,11 +2722,11 @@
         <v>6</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,7 +2734,7 @@
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -2743,7 +2744,7 @@
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -2755,11 +2756,11 @@
         <v>7</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,7 +2768,7 @@
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -2777,7 +2778,7 @@
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -2789,11 +2790,11 @@
         <v>8</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,7 +2802,7 @@
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -2811,7 +2812,7 @@
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -2823,11 +2824,11 @@
         <v>9</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,7 +2836,7 @@
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -2845,7 +2846,7 @@
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -2857,11 +2858,11 @@
         <v>10</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,7 +2870,7 @@
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
       <c r="D143" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -2879,7 +2880,7 @@
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
       <c r="D144" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -2891,27 +2892,27 @@
         <v>11</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146" s="6">
         <v>1</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,7 +2920,7 @@
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -2929,7 +2930,7 @@
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
       <c r="D148" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -2941,11 +2942,11 @@
         <v>2</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,7 +2954,7 @@
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
       <c r="D150" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -2963,7 +2964,7 @@
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
       <c r="D151" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="11"/>
@@ -2975,11 +2976,11 @@
         <v>3</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,7 +2988,7 @@
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -2997,7 +2998,7 @@
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
       <c r="D154" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -3009,11 +3010,11 @@
         <v>4</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,7 +3022,7 @@
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
       <c r="D156" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -3031,7 +3032,7 @@
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
       <c r="D157" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -3043,11 +3044,11 @@
         <v>5</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,7 +3056,7 @@
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -3065,7 +3066,7 @@
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
       <c r="D160" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -3077,11 +3078,11 @@
         <v>6</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,7 +3090,7 @@
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -3099,7 +3100,7 @@
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
       <c r="D163" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -3111,11 +3112,11 @@
         <v>7</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3123,7 +3124,7 @@
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -3133,7 +3134,7 @@
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
       <c r="D166" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -3145,11 +3146,11 @@
         <v>8</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3157,7 +3158,7 @@
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -3167,7 +3168,7 @@
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
       <c r="D169" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -3179,11 +3180,11 @@
         <v>9</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,7 +3192,7 @@
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -3201,7 +3202,7 @@
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
       <c r="D172" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -3213,11 +3214,11 @@
         <v>10</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3226,7 @@
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
       <c r="D174" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -3235,7 +3236,7 @@
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
       <c r="D175" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -3247,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>

--- a/public/Equipos_Docentes.xlsx
+++ b/public/Equipos_Docentes.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$150</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="198">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1079,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>19</v>
@@ -1580,9 +1580,7 @@
       <c r="D38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
         <v>115</v>
       </c>
@@ -1594,15 +1592,13 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
+      <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
@@ -1616,25 +1612,19 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,7 +1634,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,7 +1644,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,7 +1654,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,14 +1664,18 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>177</v>
@@ -1714,7 +1708,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
@@ -1732,219 +1726,211 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="6">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
       <c r="D57" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="6">
-        <v>4</v>
-      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
       <c r="D59" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="6">
-        <v>5</v>
-      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
       <c r="D61" s="7" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="6">
-        <v>1</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="6">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="A67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,119 +1940,111 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="F76" s="7" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="6">
-        <v>1</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,7 +2054,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2086,101 +2064,111 @@
         <v>2</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="6">
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="6">
         <v>1</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
       <c r="D81" s="7" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F82" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="6">
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6">
         <v>2</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="6">
+      <c r="D84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="6">
         <v>1</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F85" s="7" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,312 +2178,310 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E88" s="7"/>
-      <c r="F88" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="A89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="13" t="s">
-        <v>121</v>
+      <c r="F90" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="13" t="s">
-        <v>167</v>
+      <c r="F91" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="6">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="10" t="s">
-        <v>81</v>
+      <c r="F94" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="6">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7" t="s">
-        <v>57</v>
+      <c r="F95" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
-        <v>196</v>
+      <c r="F96" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="A97" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F97" s="7" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="6">
-        <v>1</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>191</v>
+      <c r="A98" s="4"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="E99" s="7"/>
-      <c r="F99" s="7" t="s">
-        <v>169</v>
+      <c r="F99" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C100" s="6">
         <v>1</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102" s="6">
+      <c r="A102" s="4"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="6">
         <v>1</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6">
-        <v>2</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>161</v>
+      <c r="D103" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="6">
+      <c r="A104" s="4"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="6">
         <v>1</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
+      <c r="D105" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
+      <c r="A107" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="F107" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
+      <c r="C108" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="E108" s="7"/>
-      <c r="F108" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="F109" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -2504,67 +2490,69 @@
         <v>2</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="6">
-        <v>3</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
+      <c r="A114" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
       <c r="D114" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="7" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E115" s="7"/>
-      <c r="F115" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="6">
+        <v>2</v>
+      </c>
       <c r="D116" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -2574,7 +2562,7 @@
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -2583,56 +2571,58 @@
       <c r="A118" s="4"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="E118" s="7"/>
-      <c r="F118" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="11"/>
+      <c r="A120" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="6">
-        <v>3</v>
-      </c>
+      <c r="C121" s="6"/>
       <c r="D121" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E121" s="7"/>
-      <c r="F121" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -2640,67 +2630,67 @@
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="6">
+        <v>2</v>
+      </c>
       <c r="D123" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
+      <c r="F123" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="6">
-        <v>4</v>
-      </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E124" s="7"/>
-      <c r="F124" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="6">
+        <v>3</v>
+      </c>
       <c r="D126" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="6">
-        <v>5</v>
-      </c>
+      <c r="C127" s="6"/>
       <c r="D127" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E127" s="7"/>
-      <c r="F127" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -2708,33 +2698,33 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="6">
+        <v>4</v>
+      </c>
       <c r="D129" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="6">
-        <v>6</v>
-      </c>
+      <c r="C130" s="6"/>
       <c r="D130" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E130" s="7"/>
-      <c r="F130" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -2742,33 +2732,33 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="6">
+        <v>5</v>
+      </c>
       <c r="D132" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="6">
-        <v>7</v>
-      </c>
+      <c r="C133" s="6"/>
       <c r="D133" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E133" s="7"/>
-      <c r="F133" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -2776,33 +2766,33 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="6">
+        <v>6</v>
+      </c>
       <c r="D135" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="6">
-        <v>8</v>
-      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E136" s="7"/>
-      <c r="F136" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -2810,33 +2800,33 @@
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="6">
+        <v>7</v>
+      </c>
       <c r="D138" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="6">
-        <v>9</v>
-      </c>
+      <c r="C139" s="6"/>
       <c r="D139" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E139" s="7"/>
-      <c r="F139" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -2844,33 +2834,33 @@
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="6">
+        <v>8</v>
+      </c>
       <c r="D141" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="6">
-        <v>10</v>
-      </c>
+      <c r="C142" s="6"/>
       <c r="D142" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E142" s="7"/>
-      <c r="F142" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
       <c r="D143" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -2878,59 +2868,57 @@
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="6">
+        <v>9</v>
+      </c>
       <c r="D144" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
+      <c r="F144" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="6">
-        <v>11</v>
-      </c>
+      <c r="C145" s="6"/>
       <c r="D145" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" s="6">
-        <v>1</v>
-      </c>
+      <c r="A146" s="4"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E146" s="7"/>
-      <c r="F146" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="6">
+        <v>10</v>
+      </c>
       <c r="D147" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
       <c r="D148" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -2938,57 +2926,59 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="6">
-        <v>2</v>
-      </c>
+      <c r="C149" s="6"/>
       <c r="D149" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E149" s="7"/>
-      <c r="F149" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="6">
+        <v>11</v>
+      </c>
       <c r="D150" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="11"/>
+      <c r="A151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="6">
-        <v>3</v>
-      </c>
+      <c r="C152" s="6"/>
       <c r="D152" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E152" s="7"/>
-      <c r="F152" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -2996,67 +2986,67 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="6">
+        <v>2</v>
+      </c>
       <c r="D154" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="6">
-        <v>4</v>
-      </c>
+      <c r="C155" s="6"/>
       <c r="D155" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E155" s="7"/>
-      <c r="F155" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="6">
+        <v>3</v>
+      </c>
       <c r="D157" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
+      <c r="F157" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="6">
-        <v>5</v>
-      </c>
+      <c r="C158" s="6"/>
       <c r="D158" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E158" s="7"/>
-      <c r="F158" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -3064,33 +3054,33 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="6"/>
+      <c r="C160" s="6">
+        <v>4</v>
+      </c>
       <c r="D160" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
+      <c r="F160" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="6">
-        <v>6</v>
-      </c>
+      <c r="C161" s="6"/>
       <c r="D161" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E161" s="7"/>
-      <c r="F161" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -3098,33 +3088,33 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="6"/>
+      <c r="C163" s="6">
+        <v>5</v>
+      </c>
       <c r="D163" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
+      <c r="F163" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="6">
-        <v>7</v>
-      </c>
+      <c r="C164" s="6"/>
       <c r="D164" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E164" s="7"/>
-      <c r="F164" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -3132,33 +3122,33 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="6">
+        <v>6</v>
+      </c>
       <c r="D166" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
+      <c r="F166" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="6">
-        <v>8</v>
-      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E167" s="7"/>
-      <c r="F167" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -3166,33 +3156,33 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="6">
+        <v>7</v>
+      </c>
       <c r="D169" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="6">
-        <v>9</v>
-      </c>
+      <c r="C170" s="6"/>
       <c r="D170" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E170" s="7"/>
-      <c r="F170" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -3200,33 +3190,33 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="6"/>
+      <c r="C172" s="6">
+        <v>8</v>
+      </c>
       <c r="D172" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="6">
-        <v>10</v>
-      </c>
+      <c r="C173" s="6"/>
       <c r="D173" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E173" s="7"/>
-      <c r="F173" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
       <c r="D174" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -3234,27 +3224,85 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="6"/>
+      <c r="C175" s="6">
+        <v>9</v>
+      </c>
       <c r="D175" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
+      <c r="F175" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="6">
-        <v>11</v>
-      </c>
+      <c r="C176" s="6"/>
       <c r="D176" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
     </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="6">
+        <v>10</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F145"/>
+  <autoFilter ref="A1:F150"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Equipos_Docentes.xlsx
+++ b/public/Equipos_Docentes.xlsx
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
